--- a/unsupportedHLA.xlsx
+++ b/unsupportedHLA.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">      2 HLA-A02:01
       4 HLA-A02:09
@@ -135,23 +135,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">      4 HLA-A*02:09
+    <t>3 HLA-A*02:08
+4 HLA-A*02:09
+14 HLA-A*02:14
+21 HLA-A*33:03
+38 HLA-B*15:16
+51 HLA-B*39:06
+6 HLA-B*39:09
+22 HLA-B*44:05
+26 HLA-B*55:02
+58 HLA-B*59:01
+3892 HLA-C*03:04
+32 HLA-C*08:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 HLA-A1
+9 HLA-A2
+1 HLA-A24
+4 HLA-A*33:03
+2 HLA-B*35:02
+1 HLA-B*39:06
+1 HLA-B*44:05
+1 HLA-B*55:01
+HLA-B35
+2 HLA-C*01:02
+1 HLA-C*03:04
+1 HLA-C*12:02
+4 HLA-E*01:01
+10 HLA-E*01:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 HLA-B44:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 HLA-E*01:03</t>
+  </si>
+  <si>
+    <t>82 A1
+ 87 A11
+ 137 A3
+2 B*08:011
+1 HLA-B35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3082 HLA class I
+1- HLA-CW3
+2 HLA-DQA1*03:01/DQB1*03:02
+2 HLA-DQA1*05:01/DQB1*02:01
+1 HLA-B35
+4 A-1
+9 A-2
+1 A-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 HLA-A*30:03
+17 HLA-B*39:09
+11 HLA-B*55:02
+211 HLA-E*01:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      4 HLA-A*02:09
       2 HLA-A*02:13
       1 HLA-A*02:14
       1 HLA-A*02:20
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     87 HLA-A*11
+     87 HLA-A*11
      82 HLA-A*1
     973 HLA-A*24:07
       7 HLA-A*29:01
@@ -179,77 +248,22 @@
       2 HLA-C*08:01
       2 HLA-C*12:02
       1 HLA-C*16:01</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 HLA-A*02:08
-4 HLA-A*02:09
-14 HLA-A*02:14
-21 HLA-A*33:03
-38 HLA-B*15:16
-51 HLA-B*39:06
-6 HLA-B*39:09
-22 HLA-B*44:05
-26 HLA-B*55:02
-58 HLA-B*59:01
-3892 HLA-C*03:04
-32 HLA-C*08:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 HLA-A1
-9 HLA-A2
-1 HLA-A24
-4 HLA-A*33:03
-2 HLA-B*35:02
-1 HLA-B*39:06
-1 HLA-B*44:05
-1 HLA-B*55:01
-HLA-B35
-2 HLA-C*01:02
-1 HLA-C*03:04
-1 HLA-C*12:02
-4 HLA-E*01:01
-10 HLA-E*01:03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataset4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataset 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dataset 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 HLA-B44:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 HLA-E*01:03</t>
-  </si>
-  <si>
-    <t>82 A1
- 87 A11
- 137 A3
-2 B*08:011
-1 HLA-B35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3082 HLA class I
-1- HLA-CW3
-2 HLA-DQA1*03:01/DQB1*03:02
-2 HLA-DQA1*05:01/DQB1*02:01
-1 HLA-B35
-4 A-1
-9 A-2
-1 A-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dataset 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12 HLA-A02:01
+18 HLA-A30:03
+21 HLA-B27:01
+19 HLA-B27:02
+21 HLA-B27:04
+21 HLA-B27:06
+17 HLA-B39:09
+211 HLA-E01:01
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,33 +305,25 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF00B0F0"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="新細明體"/>
-      <family val="1"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -344,33 +350,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,40 +664,45 @@
   <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="3"/>
+    <col min="2" max="2" width="14.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="21.25" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:5" s="5" customFormat="1" ht="388.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -702,34 +716,40 @@
   <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="20.75" style="6"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -743,37 +763,39 @@
   <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="15.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="E2" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -787,12 +809,13 @@
   <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -810,11 +833,11 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="132" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
